--- a/test-service/src/main/resources/rule6/rule6.xlsx
+++ b/test-service/src/main/resources/rule6/rule6.xlsx
@@ -529,7 +529,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/test-service/src/main/resources/rule6/rule6.xlsx
+++ b/test-service/src/main/resources/rule6/rule6.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="29">
   <si>
     <t>merchantUserId</t>
   </si>
@@ -36,6 +36,18 @@
     <t>createTime</t>
   </si>
   <si>
+    <t>SUCCESSED</t>
+  </si>
+  <si>
+    <t>FAILED</t>
+  </si>
+  <si>
+    <t>bizCode</t>
+  </si>
+  <si>
+    <t>PAY.CZ</t>
+  </si>
+  <si>
     <t>dataDisposeSehedule</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -44,9 +56,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>bizCode</t>
-  </si>
-  <si>
     <t>M66666666</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -67,19 +76,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>SUCCESSED</t>
-  </si>
-  <si>
-    <t>PAY.CZ</t>
-  </si>
-  <si>
     <t>2016-05-12 09:16:00</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>FAILED</t>
-  </si>
-  <si>
     <t>2016-05-12 09:18:00</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -97,42 +97,33 @@
   </si>
   <si>
     <t>M66666666</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>U66666666</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>DEPOSIT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>688888888888</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>notTriggered</t>
+  </si>
+  <si>
+    <t>POC0006</t>
   </si>
   <si>
     <t>2016-05-12 09:18:00</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>notTriggered</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>2016-05-12 12:15:18</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>POC0006</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,26 +158,13 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -203,7 +181,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -216,14 +194,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -526,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -563,10 +535,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I1" t="s">
         <v>8</v>
@@ -574,68 +546,68 @@
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E2" s="3">
         <v>300</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E3" s="3">
         <v>100</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="5" t="s">
         <v>17</v>
       </c>
+      <c r="G3" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="I3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E4" s="3">
         <v>1000</v>
@@ -644,24 +616,24 @@
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="I4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E5" s="3">
         <v>1000</v>
@@ -669,25 +641,25 @@
       <c r="F5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>17</v>
+      <c r="G5" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="I5" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E6" s="3">
         <v>100</v>
@@ -696,24 +668,24 @@
         <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="I6" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E7" s="3">
         <v>300</v>
@@ -722,14 +694,14 @@
         <v>21</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="I7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
       <c r="B8" t="s">
@@ -739,26 +711,26 @@
         <v>24</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8">
+        <v>1000</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" t="s">
-        <v>27</v>
-      </c>
       <c r="I8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
         <v>22</v>
       </c>
       <c r="B9" t="s">
@@ -768,26 +740,23 @@
         <v>24</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="3">
+        <v>15</v>
+      </c>
+      <c r="E9">
         <v>1000</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>28</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>29</v>
+        <v>6</v>
+      </c>
+      <c r="H9" t="s">
+        <v>26</v>
       </c>
       <c r="I9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="6:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="F28" s="4"/>
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/test-service/src/main/resources/rule6/rule6.xlsx
+++ b/test-service/src/main/resources/rule6/rule6.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="34">
   <si>
     <t>merchantUserId</t>
   </si>
@@ -97,25 +97,50 @@
   </si>
   <si>
     <t>M66666666</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>U66666666</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>DEPOSIT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>688888888888</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-05-12 12:15:18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>POC0006</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>M66666666</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>U66666666</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEPOSIT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>688888888888</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-05-12 09:18:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>notTriggered</t>
-  </si>
-  <si>
-    <t>POC0006</t>
-  </si>
-  <si>
-    <t>2016-05-12 09:18:00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016-05-12 12:15:18</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -123,7 +148,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,13 +183,26 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -181,7 +219,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -196,6 +234,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -501,7 +542,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A8" sqref="A8:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -558,7 +599,7 @@
         <v>15</v>
       </c>
       <c r="E2" s="3">
-        <v>300</v>
+        <v>30000</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>16</v>
@@ -584,7 +625,7 @@
         <v>15</v>
       </c>
       <c r="E3" s="3">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>17</v>
@@ -610,7 +651,7 @@
         <v>15</v>
       </c>
       <c r="E4" s="3">
-        <v>1000</v>
+        <v>100000</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>18</v>
@@ -636,7 +677,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="3">
-        <v>1000</v>
+        <v>100000</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>19</v>
@@ -662,7 +703,7 @@
         <v>15</v>
       </c>
       <c r="E6" s="3">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>20</v>
@@ -688,7 +729,7 @@
         <v>15</v>
       </c>
       <c r="E7" s="3">
-        <v>300</v>
+        <v>30000</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>21</v>
@@ -700,8 +741,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B8" t="s">
@@ -711,48 +752,48 @@
         <v>24</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8">
-        <v>1000</v>
+        <v>25</v>
+      </c>
+      <c r="E8" s="3">
+        <v>100000</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G8" t="s">
         <v>6</v>
       </c>
-      <c r="H8" t="s">
-        <v>25</v>
+      <c r="H8" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="I8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>22</v>
+    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9">
-        <v>1000</v>
+        <v>31</v>
+      </c>
+      <c r="E9" s="3">
+        <v>100000</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G9" t="s">
         <v>6</v>
       </c>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I9" t="s">
         <v>9</v>
